--- a/test1.xlsx
+++ b/test1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="45">
   <si>
     <t>初始地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
